--- a/medicine/Psychotrope/Abbaye_de_Bonne-Espérance_(bière)/Abbaye_de_Bonne-Espérance_(bière).xlsx
+++ b/medicine/Psychotrope/Abbaye_de_Bonne-Espérance_(bière)/Abbaye_de_Bonne-Espérance_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abbaye_de_Bonne-Esp%C3%A9rance_(bi%C3%A8re)</t>
+          <t>Abbaye_de_Bonne-Espérance_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Bonne-Espérance est une bière belge d'abbaye. Elle tire son nom de l'abbaye de Bonne-Espérance en Belgique. Jusqu'en décembre 2014, cette bière était fabriquée par la brasserie Lefebvre, à Quenast. Depuis janvier 2015, la Bonne-Espérance est un produit de la brasserie La Binchoise[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bonne-Espérance est une bière belge d'abbaye. Elle tire son nom de l'abbaye de Bonne-Espérance en Belgique. Jusqu'en décembre 2014, cette bière était fabriquée par la brasserie Lefebvre, à Quenast. Depuis janvier 2015, la Bonne-Espérance est un produit de la brasserie La Binchoise.
 Ces bières portent aujourd'hui le logo des bières belges d'abbaye reconnues. 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abbaye_de_Bonne-Esp%C3%A9rance_(bi%C3%A8re)</t>
+          <t>Abbaye_de_Bonne-Espérance_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Variétés et conditionnements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abbaye de Bonne-Espérance blonde légèrement ambrée, en bouteilles de 33 ou 75 cℓ, alc. 7,8% vol.
 Abbaye de Bonne-Espérance blonde, en fûts de 15 ou 30 ℓ, alc. 6,3% vol.
